--- a/Расчёты эко.xlsx
+++ b/Расчёты эко.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6170fcb0db259d8c/Учеба/8 сем/Диплом/Asmodeus_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{AB9F124D-7DF1-4A0A-A345-B3126B3AB9C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3B17629E-5725-4134-9ECD-11B032CB7CC4}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{AB9F124D-7DF1-4A0A-A345-B3126B3AB9C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F36B709A-4DAF-43E2-994B-96AAA786B0D8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{9081C0D5-F263-4436-A1EC-F2864DB23757}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>Расчет основной заработной платы</t>
   </si>
@@ -139,6 +139,48 @@
   </si>
   <si>
     <t>Полная себестоимость</t>
+  </si>
+  <si>
+    <t>t=</t>
+  </si>
+  <si>
+    <t>Един. Изм.</t>
+  </si>
+  <si>
+    <t>Усл. Обоз.</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>1. Прирост чистой прибыли</t>
+  </si>
+  <si>
+    <t>2. Прирост амортизационных отчислений</t>
+  </si>
+  <si>
+    <t>3. Прирост результата</t>
+  </si>
+  <si>
+    <t>4. Коэффициент дисконтирования</t>
+  </si>
+  <si>
+    <t>5. Результат с учетом фактора времени</t>
+  </si>
+  <si>
+    <t>Инвестиции</t>
+  </si>
+  <si>
+    <t>6. Инвестиции в разработку ПО</t>
+  </si>
+  <si>
+    <t>7. Инвестиции с учетом времени</t>
+  </si>
+  <si>
+    <t>8.Чистый дисконтированный доход по годам</t>
+  </si>
+  <si>
+    <t>9. ЧДД нарастающий итогом</t>
   </si>
 </sst>
 </file>
@@ -146,7 +188,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -180,7 +222,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -275,11 +317,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -296,16 +443,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -321,27 +459,76 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1125,6 +1312,645 @@
         <a:xfrm>
           <a:off x="1905000" y="10791825"/>
           <a:ext cx="180975" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Рисунок 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31CE09D-952F-4978-84AA-F8EAB77FA0A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="11277600"/>
+          <a:ext cx="180975" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Рисунок 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA24486E-41C6-40E8-8661-06B94A3E5868}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="11515725"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Рисунок 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC2C574-2CAE-4F4C-A8AB-5725B8BD0984}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="11991975"/>
+          <a:ext cx="180975" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Рисунок 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38493152-7965-4FBD-9714-0647D298430F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="12230100"/>
+          <a:ext cx="190500" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Рисунок 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F96FF11-7E63-4062-8CF8-DF8E244B8329}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="12468225"/>
+          <a:ext cx="190500" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Рисунок 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA868037-EC41-41F1-BEAF-F03635110CE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="12706350"/>
+          <a:ext cx="190500" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Рисунок 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188FC1F9-93F3-452A-B160-B314239D7C52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="11753850"/>
+          <a:ext cx="114300" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Рисунок 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF1B7ACC-9F77-4EEC-9B2D-EA2C0AEB6C38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="18678525"/>
+          <a:ext cx="361950" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Рисунок 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91F1CA54-C422-48B2-8A21-53B1721879E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="18916650"/>
+          <a:ext cx="219075" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1443,31 +2269,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746D137A-388B-4C9E-83AA-83DEF5FF5946}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="7" customWidth="1"/>
-    <col min="3" max="4" width="18" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="7"/>
-    <col min="7" max="7" width="27.5703125" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="28.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="18" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1487,202 +2314,202 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="10">
         <v>3200</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>160</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>10</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="11">
         <f>D3*C3</f>
         <v>1600</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>20</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <v>2200</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>100</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>12</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <f t="shared" ref="E4:E6" si="0">D4*C4</f>
         <v>1200</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="7">
-        <v>34.6</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="H4" s="6">
+        <v>35</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>1200</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>60</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>46</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="11">
         <f t="shared" si="0"/>
         <v>2760</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>100</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="10">
         <v>1000</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>50</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>5</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>1</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="11">
         <f>SUM(E3:E6)</f>
         <v>5810</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>73</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="14">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="11">
         <f>E7*0.2</f>
         <v>1162</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>8</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="14">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="11">
         <f>E7+E8</f>
         <v>6972</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>20</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="16">
+      <c r="B11" s="16"/>
+      <c r="C11" s="12">
         <f>(E9*H3)/100</f>
         <v>1394.4</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="16">
+      <c r="B12" s="18"/>
+      <c r="C12" s="12">
         <f>( ( E9+C11 ) * H4 )/100</f>
-        <v>2894.7744000000002</v>
+        <v>2928.24</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="16">
+      <c r="B13" s="16"/>
+      <c r="C13" s="12">
         <f>E9 *H5/100</f>
         <v>6972</v>
       </c>
@@ -1692,43 +2519,43 @@
         <v>19</v>
       </c>
       <c r="B14" s="17"/>
-      <c r="C14" s="16">
+      <c r="C14" s="12">
         <f>E9+C11+C12+C13+C15</f>
-        <v>18817.1744</v>
+        <v>18850.64</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="3">
         <f>H6*H7*H8</f>
         <v>584</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="18">
+      <c r="B16" s="18"/>
+      <c r="C16" s="13">
         <f>C14*H9/100</f>
-        <v>3763.4348800000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+        <v>3770.1279999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="18">
+      <c r="B17" s="16"/>
+      <c r="C17" s="13">
         <f>C14+C16</f>
-        <v>22580.609280000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>22620.768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1739,89 +2566,462 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:5" ht="57" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21">
+      <c r="B20" s="15"/>
+      <c r="C20" s="23">
         <f>E9</f>
         <v>6972</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="22">
+      <c r="B21" s="15"/>
+      <c r="C21" s="24">
         <f>C11</f>
         <v>1394.4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="19" t="s">
+    <row r="22" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="22">
+      <c r="B22" s="15"/>
+      <c r="C22" s="24">
         <f>C12</f>
-        <v>2894.7744000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
+        <v>2928.24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="22">
+      <c r="B23" s="15"/>
+      <c r="C23" s="24">
         <f>C15</f>
         <v>584</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="19" t="s">
+    <row r="24" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="22">
+      <c r="B24" s="15"/>
+      <c r="C24" s="24">
         <f>C13</f>
         <v>6972</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="19" t="s">
+    <row r="25" spans="1:5" ht="57" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="22">
+      <c r="B25" s="15"/>
+      <c r="C25" s="24">
         <f>C16</f>
-        <v>3763.4348800000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="19" t="s">
+        <v>3770.1279999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="22">
+      <c r="B26" s="15"/>
+      <c r="C26" s="24">
         <f>C17</f>
-        <v>22580.609280000001</v>
-      </c>
+        <v>22620.768</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="21">
+        <f xml:space="preserve"> 1.5 * ( 3* 25 - 1.5 *25 )* 1.2 * 1.346</f>
+        <v>90.855000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="21">
+        <f xml:space="preserve"> 90.86*252</f>
+        <v>22896.720000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="21">
+        <f>20 * 22620.77 / 100</f>
+        <v>4524.1540000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31"/>
+      <c r="C31" s="21">
+        <f>1/(1 + 10/100)^(E31-1)</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32"/>
+      <c r="C32" s="21">
+        <f t="shared" ref="C32:C34" si="1">1/(1 + 10/100)^(E32-1)</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B33"/>
+      <c r="C33" s="21">
+        <f t="shared" si="1"/>
+        <v>0.82644628099173545</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B34"/>
+      <c r="C34" s="21">
+        <f t="shared" si="1"/>
+        <v>0.75131480090157754</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="21"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="27"/>
+      <c r="B36" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="28">
+        <v>2021</v>
+      </c>
+      <c r="E36" s="28">
+        <f>D36+1</f>
+        <v>2022</v>
+      </c>
+      <c r="F36" s="28">
+        <f t="shared" ref="F36:G36" si="2">E36+1</f>
+        <v>2023</v>
+      </c>
+      <c r="G36" s="30">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="32"/>
+    </row>
+    <row r="38" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="10">
+        <f>C29/2</f>
+        <v>11448.36</v>
+      </c>
+      <c r="E38" s="10">
+        <f>$C$29</f>
+        <v>22896.720000000001</v>
+      </c>
+      <c r="F38" s="10">
+        <f t="shared" ref="F38:G38" si="3">$C$29</f>
+        <v>22896.720000000001</v>
+      </c>
+      <c r="G38" s="10">
+        <f t="shared" si="3"/>
+        <v>22896.720000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="10">
+        <f>$C$30</f>
+        <v>4524.1540000000005</v>
+      </c>
+      <c r="E39" s="10">
+        <f t="shared" ref="E39:G39" si="4">$C$30</f>
+        <v>4524.1540000000005</v>
+      </c>
+      <c r="F39" s="10">
+        <f t="shared" si="4"/>
+        <v>4524.1540000000005</v>
+      </c>
+      <c r="G39" s="10">
+        <f t="shared" si="4"/>
+        <v>4524.1540000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="10">
+        <f>D39+D38</f>
+        <v>15972.514000000001</v>
+      </c>
+      <c r="E40" s="10">
+        <f t="shared" ref="E40:G40" si="5">E39+E38</f>
+        <v>27420.874000000003</v>
+      </c>
+      <c r="F40" s="10">
+        <f t="shared" si="5"/>
+        <v>27420.874000000003</v>
+      </c>
+      <c r="G40" s="10">
+        <f t="shared" si="5"/>
+        <v>27420.874000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="10">
+        <f>C31</f>
+        <v>1</v>
+      </c>
+      <c r="E41" s="10">
+        <f>C32</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="F41" s="10">
+        <f>C33</f>
+        <v>0.82644628099173545</v>
+      </c>
+      <c r="G41" s="37">
+        <f>C34</f>
+        <v>0.75131480090157754</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="10">
+        <f>D40*D41</f>
+        <v>15972.514000000001</v>
+      </c>
+      <c r="E42" s="10">
+        <f t="shared" ref="E42:G42" si="6">E40*E41</f>
+        <v>24928.067272727276</v>
+      </c>
+      <c r="F42" s="10">
+        <f t="shared" si="6"/>
+        <v>22661.879338842977</v>
+      </c>
+      <c r="G42" s="10">
+        <f t="shared" si="6"/>
+        <v>20601.708489857247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="32"/>
+    </row>
+    <row r="44" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="10">
+        <f>C26</f>
+        <v>22620.768</v>
+      </c>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="38"/>
+    </row>
+    <row r="45" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="10">
+        <f>C26</f>
+        <v>22620.768</v>
+      </c>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="21"/>
+    </row>
+    <row r="46" spans="1:8" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A46" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="25"/>
+      <c r="D46" s="10">
+        <f>D42-$D$44</f>
+        <v>-6648.253999999999</v>
+      </c>
+      <c r="E46" s="10">
+        <f>E42-D44</f>
+        <v>2307.2992727272758</v>
+      </c>
+      <c r="F46" s="10">
+        <f t="shared" ref="F46:G46" si="7">F42-E44</f>
+        <v>22661.879338842977</v>
+      </c>
+      <c r="G46" s="10">
+        <f t="shared" si="7"/>
+        <v>20601.708489857247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="35"/>
+      <c r="D47" s="39">
+        <f>D42-D45</f>
+        <v>-6648.253999999999</v>
+      </c>
+      <c r="E47" s="39">
+        <f>D47+E46</f>
+        <v>-4340.9547272727232</v>
+      </c>
+      <c r="F47" s="39">
+        <f t="shared" ref="F47:G47" si="8">E47+F46</f>
+        <v>18320.924611570255</v>
+      </c>
+      <c r="G47" s="39">
+        <f t="shared" si="8"/>
+        <v>38922.633101427506</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C48" s="21"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49"/>
+      <c r="C49" s="21">
+        <f>SUM(D38:G38)/4</f>
+        <v>20034.63</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50"/>
+      <c r="C50" s="40">
+        <f>C49/D44</f>
+        <v>0.88567417339676535</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="21">
+        <f>SUM(D46:G46)</f>
+        <v>38922.633101427506</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="21"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="21"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="21"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Расчёты эко.xlsx
+++ b/Расчёты эко.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6170fcb0db259d8c/Учеба/8 сем/Диплом/Asmodeus_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{AB9F124D-7DF1-4A0A-A345-B3126B3AB9C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F36B709A-4DAF-43E2-994B-96AAA786B0D8}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{AB9F124D-7DF1-4A0A-A345-B3126B3AB9C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{236766FF-BF24-4999-82BB-18585487DE1E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{9081C0D5-F263-4436-A1EC-F2864DB23757}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{9081C0D5-F263-4436-A1EC-F2864DB23757}"/>
   </bookViews>
   <sheets>
     <sheet name="ЭКО" sheetId="1" r:id="rId1"/>
+    <sheet name="Графики" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>Расчет основной заработной платы</t>
   </si>
@@ -181,6 +182,15 @@
   </si>
   <si>
     <t>9. ЧДД нарастающий итогом</t>
+  </si>
+  <si>
+    <t>прочее</t>
+  </si>
+  <si>
+    <t>Работа на проекте</t>
+  </si>
+  <si>
+    <t>обучение</t>
   </si>
 </sst>
 </file>
@@ -426,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -469,21 +479,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -495,19 +490,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -530,6 +516,31 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -545,6 +556,1952 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>После внедрения системы подбора</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Графики!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>136.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>257.39999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0847-4E01-AB9D-F7D3B93E4A06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>До внедрения системы подбора</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Графики!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>165.52800000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175.03199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0847-4E01-AB9D-F7D3B93E4A06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1168019040"/>
+        <c:axId val="1167416656"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1168019040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Категории затрат времени на обучение, где</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>1 Самообучение</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>2 Обучение в компании другими сотрудниками</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr algn="l">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>3 Обучение для получение сертификатов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1167416656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1167416656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Затраты рабочего времени </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>на обучение,мин</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1168019040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="4400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Графики!$B$41:$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Работа на проекте</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>обучение</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>прочее</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Графики!$B$38:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E22-4F7B-863A-049F08782BB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1972,6 +3929,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>280146</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>575422</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57BA807B-973E-44D1-8995-13CD154BB8CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>154480</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>158801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>372995</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>68034</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96EF8D6E-31F3-4CA7-AF48-CF9020D41203}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -2271,7 +4305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746D137A-388B-4C9E-83AA-83DEF5FF5946}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -2288,13 +4322,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -2422,12 +4456,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="11">
         <f>SUM(E3:E6)</f>
         <v>5810</v>
@@ -2443,12 +4477,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="11">
         <f>E7*0.2</f>
         <v>1162</v>
@@ -2464,12 +4498,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="11">
         <f>E7+E8</f>
         <v>6972</v>
@@ -2485,70 +4519,70 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="12">
         <f>(E9*H3)/100</f>
         <v>1394.4</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="12">
         <f>( ( E9+C11 ) * H4 )/100</f>
         <v>2928.24</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="12">
         <f>E9 *H5/100</f>
         <v>6972</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="12">
         <f>E9+C11+C12+C13+C15</f>
         <v>18850.64</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="3">
         <f>H6*H7*H8</f>
         <v>584</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="13">
         <f>C14*H9/100</f>
         <v>3770.1279999999997</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="13">
         <f>C14+C16</f>
         <v>22620.768</v>
@@ -2571,7 +4605,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="15"/>
-      <c r="C20" s="23">
+      <c r="C20" s="18">
         <f>E9</f>
         <v>6972</v>
       </c>
@@ -2581,7 +4615,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="15"/>
-      <c r="C21" s="24">
+      <c r="C21" s="19">
         <f>C11</f>
         <v>1394.4</v>
       </c>
@@ -2591,7 +4625,7 @@
         <v>33</v>
       </c>
       <c r="B22" s="15"/>
-      <c r="C22" s="24">
+      <c r="C22" s="19">
         <f>C12</f>
         <v>2928.24</v>
       </c>
@@ -2601,7 +4635,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="15"/>
-      <c r="C23" s="24">
+      <c r="C23" s="19">
         <f>C15</f>
         <v>584</v>
       </c>
@@ -2611,7 +4645,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="15"/>
-      <c r="C24" s="24">
+      <c r="C24" s="19">
         <f>C13</f>
         <v>6972</v>
       </c>
@@ -2621,7 +4655,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="15"/>
-      <c r="C25" s="24">
+      <c r="C25" s="19">
         <f>C16</f>
         <v>3770.1279999999997</v>
       </c>
@@ -2631,41 +4665,41 @@
         <v>35</v>
       </c>
       <c r="B26" s="15"/>
-      <c r="C26" s="24">
+      <c r="C26" s="19">
         <f>C17</f>
         <v>22620.768</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="16">
         <f xml:space="preserve"> 1.5 * ( 3* 25 - 1.5 *25 )* 1.2 * 1.346</f>
         <v>90.855000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="16">
         <f xml:space="preserve"> 90.86*252</f>
         <v>22896.720000000001</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="16">
         <f>20 * 22620.77 / 100</f>
         <v>4524.1540000000005</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31"/>
-      <c r="C31" s="21">
+      <c r="C31" s="16">
         <f>1/(1 + 10/100)^(E31-1)</f>
         <v>1</v>
       </c>
@@ -2678,7 +4712,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32"/>
-      <c r="C32" s="21">
+      <c r="C32" s="16">
         <f t="shared" ref="C32:C34" si="1">1/(1 + 10/100)^(E32-1)</f>
         <v>0.90909090909090906</v>
       </c>
@@ -2691,7 +4725,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33"/>
-      <c r="C33" s="21">
+      <c r="C33" s="16">
         <f t="shared" si="1"/>
         <v>0.82644628099173545</v>
       </c>
@@ -2704,7 +4738,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34"/>
-      <c r="C34" s="21">
+      <c r="C34" s="16">
         <f t="shared" si="1"/>
         <v>0.75131480090157754</v>
       </c>
@@ -2716,51 +4750,51 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="21"/>
+      <c r="C35" s="16"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="27"/>
-      <c r="B36" s="28" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="28">
+      <c r="D36" s="22">
         <v>2021</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36" s="22">
         <f>D36+1</f>
         <v>2022</v>
       </c>
-      <c r="F36" s="28">
+      <c r="F36" s="22">
         <f t="shared" ref="F36:G36" si="2">E36+1</f>
         <v>2023</v>
       </c>
-      <c r="G36" s="30">
+      <c r="G36" s="24">
         <f t="shared" si="2"/>
         <v>2024</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="32"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="36"/>
     </row>
     <row r="38" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="25"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="10">
         <f>C29/2</f>
         <v>11448.36</v>
@@ -2779,13 +4813,13 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="25"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="10">
         <f>$C$30</f>
         <v>4524.1540000000005</v>
@@ -2804,13 +4838,13 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="25"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="10">
         <f>D39+D38</f>
         <v>15972.514000000001</v>
@@ -2829,13 +4863,13 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="25"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="10">
         <f>C31</f>
         <v>1</v>
@@ -2848,19 +4882,19 @@
         <f>C33</f>
         <v>0.82644628099173545</v>
       </c>
-      <c r="G41" s="37">
+      <c r="G41" s="29">
         <f>C34</f>
         <v>0.75131480090157754</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="25"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="10">
         <f>D40*D41</f>
         <v>15972.514000000001</v>
@@ -2879,57 +4913,57 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="32"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="36"/>
     </row>
     <row r="44" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="25"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="10">
         <f>C26</f>
         <v>22620.768</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="38"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="30"/>
     </row>
     <row r="45" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="25"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="10">
         <f>C26</f>
         <v>22620.768</v>
       </c>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="21"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" spans="1:8" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="25"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="10">
         <f>D42-$D$44</f>
         <v>-6648.253999999999</v>
@@ -2948,64 +4982,64 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="39">
+      <c r="C47" s="27"/>
+      <c r="D47" s="31">
         <f>D42-D45</f>
         <v>-6648.253999999999</v>
       </c>
-      <c r="E47" s="39">
+      <c r="E47" s="31">
         <f>D47+E46</f>
         <v>-4340.9547272727232</v>
       </c>
-      <c r="F47" s="39">
+      <c r="F47" s="31">
         <f t="shared" ref="F47:G47" si="8">E47+F46</f>
         <v>18320.924611570255</v>
       </c>
-      <c r="G47" s="39">
+      <c r="G47" s="31">
         <f t="shared" si="8"/>
         <v>38922.633101427506</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C48" s="21"/>
+      <c r="C48" s="16"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49"/>
-      <c r="C49" s="21">
+      <c r="C49" s="16">
         <f>SUM(D38:G38)/4</f>
         <v>20034.63</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50"/>
-      <c r="C50" s="40">
+      <c r="C50" s="32">
         <f>C49/D44</f>
         <v>0.88567417339676535</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="21">
+      <c r="C51" s="16">
         <f>SUM(D46:G46)</f>
         <v>38922.633101427506</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C52" s="21"/>
+      <c r="C52" s="16"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C53" s="21"/>
+      <c r="C53" s="16"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C54" s="21"/>
+      <c r="C54" s="16"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C55" s="21"/>
+      <c r="C55" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3026,4 +5060,90 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4E9B28-7367-408A-B131-1E1763DD4442}">
+  <dimension ref="B2:C43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="41">
+        <f xml:space="preserve"> 3*60</f>
+        <v>180</v>
+      </c>
+      <c r="C2" s="41">
+        <f>1.5 * 60</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="41">
+        <f>B2 - B2*0.24</f>
+        <v>136.80000000000001</v>
+      </c>
+      <c r="C3" s="41">
+        <f>B3+ B3*0.21</f>
+        <v>165.52800000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="41">
+        <f>B2 +B2*0.43</f>
+        <v>257.39999999999998</v>
+      </c>
+      <c r="C4" s="41">
+        <f>B4 - B4 * 0.32</f>
+        <v>175.03199999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f xml:space="preserve"> 20</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f>B38 +10</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Расчёты эко.xlsx
+++ b/Расчёты эко.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6170fcb0db259d8c/Учеба/8 сем/Диплом/Asmodeus_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{AB9F124D-7DF1-4A0A-A345-B3126B3AB9C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{236766FF-BF24-4999-82BB-18585487DE1E}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{AB9F124D-7DF1-4A0A-A345-B3126B3AB9C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A5326875-140E-4404-826D-E24EE77D8AB4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{9081C0D5-F263-4436-A1EC-F2864DB23757}"/>
+    <workbookView xWindow="-23148" yWindow="7116" windowWidth="23256" windowHeight="12720" xr2:uid="{9081C0D5-F263-4436-A1EC-F2864DB23757}"/>
   </bookViews>
   <sheets>
     <sheet name="ЭКО" sheetId="1" r:id="rId1"/>
@@ -516,6 +516,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -540,7 +541,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1177,6 +1177,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9BB6-4B25-BB35-0C6331ABDE96}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1192,6 +1197,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9BB6-4B25-BB35-0C6331ABDE96}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1207,6 +1217,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9BB6-4B25-BB35-0C6331ABDE96}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4305,8 +4320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746D137A-388B-4C9E-83AA-83DEF5FF5946}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4322,13 +4337,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -4395,7 +4410,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="6">
-        <v>35</v>
+        <v>34.06</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>14</v>
@@ -4456,12 +4471,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="11">
         <f>SUM(E3:E6)</f>
         <v>5810</v>
@@ -4477,12 +4492,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="11">
         <f>E7*0.2</f>
         <v>1162</v>
@@ -4498,12 +4513,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="11">
         <f>E7+E8</f>
         <v>6972</v>
@@ -4519,73 +4534,73 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="12">
         <f>(E9*H3)/100</f>
         <v>1394.4</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="12">
         <f>( ( E9+C11 ) * H4 )/100</f>
-        <v>2928.24</v>
+        <v>2849.5958400000004</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="39"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="12">
         <f>E9 *H5/100</f>
         <v>6972</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="40"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="12">
         <f>E9+C11+C12+C13+C15</f>
-        <v>18850.64</v>
+        <v>18771.99584</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="39"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="3">
         <f>H6*H7*H8</f>
         <v>584</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="33"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="13">
         <f>C14*H9/100</f>
-        <v>3770.1279999999997</v>
+        <v>3754.3991679999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="39"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="13">
         <f>C14+C16</f>
-        <v>22620.768</v>
+        <v>22526.395008</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -4627,7 +4642,7 @@
       <c r="B22" s="15"/>
       <c r="C22" s="19">
         <f>C12</f>
-        <v>2928.24</v>
+        <v>2849.5958400000004</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4657,7 +4672,7 @@
       <c r="B25" s="15"/>
       <c r="C25" s="19">
         <f>C16</f>
-        <v>3770.1279999999997</v>
+        <v>3754.3991679999999</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4667,7 +4682,13 @@
       <c r="B26" s="15"/>
       <c r="C26" s="19">
         <f>C17</f>
-        <v>22620.768</v>
+        <v>22526.395008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="6">
+        <f xml:space="preserve"> 1.5 * ( 3* 25 - 1.5 *25 )* 1.2 * 1.346</f>
+        <v>90.855000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -4675,8 +4696,8 @@
         <v>15</v>
       </c>
       <c r="C28" s="16">
-        <f xml:space="preserve"> 1.5 * ( 3* 25 - 1.5 *25 )* 1.2 * 1.346</f>
-        <v>90.855000000000004</v>
+        <f>( 1 +0.3406)* (1 +0.2) *1.5*( 3* 25 - 1.5 *25 )</f>
+        <v>90.490499999999997</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -4684,8 +4705,8 @@
         <v>15</v>
       </c>
       <c r="C29" s="16">
-        <f xml:space="preserve"> 90.86*252</f>
-        <v>22896.720000000001</v>
+        <f xml:space="preserve"> C28*252</f>
+        <v>22803.606</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -4693,8 +4714,8 @@
         <v>15</v>
       </c>
       <c r="C30" s="16">
-        <f>20 * 22620.77 / 100</f>
-        <v>4524.1540000000005</v>
+        <f>20 * C29 / 100</f>
+        <v>4560.7212</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -4777,15 +4798,15 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="37"/>
     </row>
     <row r="38" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A38" s="25" t="s">
@@ -4797,19 +4818,19 @@
       <c r="C38" s="20"/>
       <c r="D38" s="10">
         <f>C29/2</f>
-        <v>11448.36</v>
+        <v>11401.803</v>
       </c>
       <c r="E38" s="10">
         <f>$C$29</f>
-        <v>22896.720000000001</v>
+        <v>22803.606</v>
       </c>
       <c r="F38" s="10">
         <f t="shared" ref="F38:G38" si="3">$C$29</f>
-        <v>22896.720000000001</v>
+        <v>22803.606</v>
       </c>
       <c r="G38" s="10">
         <f t="shared" si="3"/>
-        <v>22896.720000000001</v>
+        <v>22803.606</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="56.25" x14ac:dyDescent="0.3">
@@ -4822,19 +4843,19 @@
       <c r="C39" s="20"/>
       <c r="D39" s="10">
         <f>$C$30</f>
-        <v>4524.1540000000005</v>
+        <v>4560.7212</v>
       </c>
       <c r="E39" s="10">
         <f t="shared" ref="E39:G39" si="4">$C$30</f>
-        <v>4524.1540000000005</v>
+        <v>4560.7212</v>
       </c>
       <c r="F39" s="10">
         <f t="shared" si="4"/>
-        <v>4524.1540000000005</v>
+        <v>4560.7212</v>
       </c>
       <c r="G39" s="10">
         <f t="shared" si="4"/>
-        <v>4524.1540000000005</v>
+        <v>4560.7212</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -4847,19 +4868,19 @@
       <c r="C40" s="20"/>
       <c r="D40" s="10">
         <f>D39+D38</f>
-        <v>15972.514000000001</v>
+        <v>15962.5242</v>
       </c>
       <c r="E40" s="10">
         <f t="shared" ref="E40:G40" si="5">E39+E38</f>
-        <v>27420.874000000003</v>
+        <v>27364.3272</v>
       </c>
       <c r="F40" s="10">
         <f t="shared" si="5"/>
-        <v>27420.874000000003</v>
+        <v>27364.3272</v>
       </c>
       <c r="G40" s="10">
         <f t="shared" si="5"/>
-        <v>27420.874000000003</v>
+        <v>27364.3272</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
@@ -4897,31 +4918,31 @@
       <c r="C42" s="20"/>
       <c r="D42" s="10">
         <f>D40*D41</f>
-        <v>15972.514000000001</v>
+        <v>15962.5242</v>
       </c>
       <c r="E42" s="10">
         <f t="shared" ref="E42:G42" si="6">E40*E41</f>
-        <v>24928.067272727276</v>
+        <v>24876.661090909089</v>
       </c>
       <c r="F42" s="10">
         <f t="shared" si="6"/>
-        <v>22661.879338842977</v>
+        <v>22615.146446280989</v>
       </c>
       <c r="G42" s="10">
         <f t="shared" si="6"/>
-        <v>20601.708489857247</v>
+        <v>20559.224042073623</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="37"/>
     </row>
     <row r="44" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A44" s="25" t="s">
@@ -4933,7 +4954,7 @@
       <c r="C44" s="20"/>
       <c r="D44" s="10">
         <f>C26</f>
-        <v>22620.768</v>
+        <v>22526.395008</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
@@ -4949,7 +4970,7 @@
       <c r="C45" s="20"/>
       <c r="D45" s="10">
         <f>C26</f>
-        <v>22620.768</v>
+        <v>22526.395008</v>
       </c>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
@@ -4966,19 +4987,19 @@
       <c r="C46" s="20"/>
       <c r="D46" s="10">
         <f>D42-$D$44</f>
-        <v>-6648.253999999999</v>
+        <v>-6563.8708079999997</v>
       </c>
       <c r="E46" s="10">
         <f>E42-D44</f>
-        <v>2307.2992727272758</v>
+        <v>2350.2660829090892</v>
       </c>
       <c r="F46" s="10">
         <f t="shared" ref="F46:G46" si="7">F42-E44</f>
-        <v>22661.879338842977</v>
+        <v>22615.146446280989</v>
       </c>
       <c r="G46" s="10">
         <f t="shared" si="7"/>
-        <v>20601.708489857247</v>
+        <v>20559.224042073623</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4991,19 +5012,19 @@
       <c r="C47" s="27"/>
       <c r="D47" s="31">
         <f>D42-D45</f>
-        <v>-6648.253999999999</v>
+        <v>-6563.8708079999997</v>
       </c>
       <c r="E47" s="31">
         <f>D47+E46</f>
-        <v>-4340.9547272727232</v>
+        <v>-4213.6047250909105</v>
       </c>
       <c r="F47" s="31">
         <f t="shared" ref="F47:G47" si="8">E47+F46</f>
-        <v>18320.924611570255</v>
+        <v>18401.541721190079</v>
       </c>
       <c r="G47" s="31">
         <f t="shared" si="8"/>
-        <v>38922.633101427506</v>
+        <v>38960.765763263698</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -5013,20 +5034,20 @@
       <c r="B49"/>
       <c r="C49" s="16">
         <f>SUM(D38:G38)/4</f>
-        <v>20034.63</v>
+        <v>19953.15525</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50"/>
       <c r="C50" s="32">
         <f>C49/D44</f>
-        <v>0.88567417339676535</v>
+        <v>0.88576779564212815</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C51" s="16">
         <f>SUM(D46:G46)</f>
-        <v>38922.633101427506</v>
+        <v>38960.765763263698</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
@@ -5066,49 +5087,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4E9B28-7367-408A-B131-1E1763DD4442}">
   <dimension ref="B2:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="41">
+      <c r="B2" s="33">
         <f xml:space="preserve"> 3*60</f>
         <v>180</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="33">
         <f>1.5 * 60</f>
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="41">
+      <c r="B3" s="33">
         <f>B2 - B2*0.24</f>
         <v>136.80000000000001</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="33">
         <f>B3+ B3*0.21</f>
         <v>165.52800000000002</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="41">
+      <c r="B4" s="33">
         <f>B2 +B2*0.43</f>
         <v>257.39999999999998</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="33">
         <f>B4 - B4 * 0.32</f>
         <v>175.03199999999998</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38">
